--- a/class/KIM 25093291 (dz 15-02-25)/task-18-19488.xlsx
+++ b/class/KIM 25093291 (dz 15-02-25)/task-18-19488.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\terri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terri\EGE\class\KIM 25093291 (dz 15-02-25)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9168" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="2916" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM22" sqref="AM22:AN23"/>
+      <selection activeCell="AN23" sqref="AN23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,80 +720,80 @@
         <v>1473</v>
       </c>
       <c r="W2">
-        <f>MIN(V2,W1)-B2</f>
-        <v>1442</v>
+        <f>MAX(V2,W1)-B2</f>
+        <v>1444</v>
       </c>
       <c r="X2">
-        <f>MIN(W2,X1)-C2</f>
-        <v>1417</v>
+        <f>MAX(W2,X1)-C2</f>
+        <v>1421</v>
       </c>
       <c r="Y2">
-        <f>MIN(X2,Y1)-D2</f>
-        <v>1390</v>
+        <f>MAX(X2,Y1)-D2</f>
+        <v>1394</v>
       </c>
       <c r="Z2">
-        <f>MIN(Y2,Z1)-E2</f>
-        <v>1360</v>
+        <f>MAX(Y2,Z1)-E2</f>
+        <v>1364</v>
       </c>
       <c r="AA2" s="7">
-        <f>MIN(Z2,AA1)-F2</f>
-        <v>1334</v>
+        <f>MAX(Z2,AA1)-F2</f>
+        <v>1339</v>
       </c>
       <c r="AB2" s="7">
-        <f>MIN(AA2,AB1)-G2</f>
+        <f>MAX(AA2,AB1)-G2</f>
+        <v>1314</v>
+      </c>
+      <c r="AC2" s="7">
+        <f>MAX(AB2,AC1)-H2</f>
+        <v>1288</v>
+      </c>
+      <c r="AD2" s="7">
+        <f>MAX(AC2,AD1)-I2</f>
+        <v>1263</v>
+      </c>
+      <c r="AE2" s="11">
+        <f>MAX(AD2,AE1)+J2</f>
+        <v>1472</v>
+      </c>
+      <c r="AF2">
+        <f>MAX(AE2,AF1)-K2</f>
+        <v>1447</v>
+      </c>
+      <c r="AG2">
+        <f>MAX(AF2,AG1)-L2</f>
+        <v>1422</v>
+      </c>
+      <c r="AH2">
+        <f>MAX(AG2,AH1)-M2</f>
+        <v>1392</v>
+      </c>
+      <c r="AI2">
+        <f>MAX(AH2,AI1)-N2</f>
+        <v>1367</v>
+      </c>
+      <c r="AJ2">
+        <f>MAX(AI2,AJ1)-O2</f>
+        <v>1337</v>
+      </c>
+      <c r="AK2">
+        <f>MAX(AJ2,AK1)-P2</f>
         <v>1309</v>
       </c>
-      <c r="AC2" s="7">
-        <f>MIN(AB2,AC1)-H2</f>
-        <v>1279</v>
-      </c>
-      <c r="AD2" s="7">
-        <f>MIN(AC2,AD1)-I2</f>
-        <v>1253</v>
-      </c>
-      <c r="AE2" s="11">
-        <f>MIN(AD2,AE1)+J2</f>
-        <v>1461</v>
-      </c>
-      <c r="AF2">
-        <f>MIN(AE2,AF1)-K2</f>
-        <v>1200</v>
-      </c>
-      <c r="AG2">
-        <f>MIN(AF2,AG1)-L2</f>
-        <v>1170</v>
-      </c>
-      <c r="AH2">
-        <f>MIN(AG2,AH1)-M2</f>
-        <v>1137</v>
-      </c>
-      <c r="AI2">
-        <f>MIN(AH2,AI1)-N2</f>
-        <v>1112</v>
-      </c>
-      <c r="AJ2">
-        <f>MIN(AI2,AJ1)-O2</f>
-        <v>1082</v>
-      </c>
-      <c r="AK2">
-        <f>MIN(AJ2,AK1)-P2</f>
-        <v>1054</v>
-      </c>
       <c r="AL2">
-        <f>MIN(AK2,AL1)-Q2</f>
-        <v>1026</v>
+        <f>MAX(AK2,AL1)-Q2</f>
+        <v>1281</v>
       </c>
       <c r="AM2">
-        <f>MIN(AL2,AM1)-R2</f>
-        <v>997</v>
+        <f>MAX(AL2,AM1)-R2</f>
+        <v>1252</v>
       </c>
       <c r="AN2">
-        <f>MIN(AM2,AN1)-S2</f>
-        <v>970</v>
+        <f>MAX(AM2,AN1)-S2</f>
+        <v>1225</v>
       </c>
       <c r="AO2" s="5">
-        <f>MIN(AN2,AO1)-T2</f>
-        <v>943</v>
+        <f>MAX(AN2,AO1)-T2</f>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
@@ -862,80 +862,80 @@
         <v>1443</v>
       </c>
       <c r="W3">
-        <f>MIN(V3,W2)-B3</f>
-        <v>1412</v>
+        <f>MAX(V3,W2)-B3</f>
+        <v>1414</v>
       </c>
       <c r="X3">
-        <f>MIN(W3,X2)-C3</f>
-        <v>1386</v>
+        <f>MAX(W3,X2)-C3</f>
+        <v>1395</v>
       </c>
       <c r="Y3">
-        <f>MIN(X3,Y2)-D3</f>
-        <v>1360</v>
+        <f>MAX(X3,Y2)-D3</f>
+        <v>1369</v>
       </c>
       <c r="Z3">
-        <f>MIN(Y3,Z2)-E3</f>
-        <v>1330</v>
+        <f>MAX(Y3,Z2)-E3</f>
+        <v>1339</v>
       </c>
       <c r="AA3" s="12">
         <f>Z3-F3</f>
-        <v>1302</v>
+        <v>1311</v>
       </c>
       <c r="AB3" s="12">
         <f t="shared" ref="AB3:AE3" si="2">AA3-G3</f>
-        <v>1275</v>
+        <v>1284</v>
       </c>
       <c r="AC3" s="12">
         <f t="shared" si="2"/>
-        <v>1250</v>
+        <v>1259</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" si="2"/>
-        <v>1221</v>
+        <v>1230</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" si="2"/>
-        <v>1191</v>
+        <v>1200</v>
       </c>
       <c r="AF3">
-        <f>MIN(AE3,AF2)-K3</f>
-        <v>1165</v>
+        <f>MAX(AE3,AF2)-K3</f>
+        <v>1421</v>
       </c>
       <c r="AG3">
-        <f>MIN(AF3,AG2)-L3</f>
-        <v>1138</v>
+        <f>MAX(AF3,AG2)-L3</f>
+        <v>1395</v>
       </c>
       <c r="AH3">
-        <f>MIN(AG3,AH2)-M3</f>
-        <v>1110</v>
+        <f>MAX(AG3,AH2)-M3</f>
+        <v>1368</v>
       </c>
       <c r="AI3">
-        <f>MIN(AH3,AI2)-N3</f>
-        <v>1084</v>
+        <f>MAX(AH3,AI2)-N3</f>
+        <v>1342</v>
       </c>
       <c r="AJ3">
-        <f>MIN(AI3,AJ2)-O3</f>
-        <v>1052</v>
+        <f>MAX(AI3,AJ2)-O3</f>
+        <v>1312</v>
       </c>
       <c r="AK3">
-        <f>MIN(AJ3,AK2)-P3</f>
-        <v>1022</v>
+        <f>MAX(AJ3,AK2)-P3</f>
+        <v>1282</v>
       </c>
       <c r="AL3">
-        <f>MIN(AK3,AL2)-Q3</f>
-        <v>997</v>
+        <f>MAX(AK3,AL2)-Q3</f>
+        <v>1257</v>
       </c>
       <c r="AM3" s="5">
-        <f>MIN(AL3,AM2)-R3</f>
-        <v>971</v>
+        <f>MAX(AL3,AM2)-R3</f>
+        <v>1231</v>
       </c>
       <c r="AN3" s="14">
         <f t="shared" ref="AN3:AN17" si="3">AN2-S3</f>
-        <v>941</v>
+        <v>1196</v>
       </c>
       <c r="AO3" s="5">
-        <f>MIN(AN3,AO2)-T3</f>
-        <v>912</v>
+        <f>MAX(AN3,AO2)-T3</f>
+        <v>1169</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1004,80 +1004,80 @@
         <v>1418</v>
       </c>
       <c r="W4">
-        <f>MIN(V4,W3)-B4</f>
-        <v>1382</v>
+        <f>MAX(V4,W3)-B4</f>
+        <v>1388</v>
       </c>
       <c r="X4">
-        <f>MIN(W4,X3)-C4</f>
-        <v>1355</v>
+        <f>MAX(W4,X3)-C4</f>
+        <v>1368</v>
       </c>
       <c r="Y4" s="5">
-        <f>MIN(X4,Y3)-D4</f>
-        <v>1326</v>
+        <f>MAX(X4,Y3)-D4</f>
+        <v>1340</v>
       </c>
       <c r="Z4" s="14">
         <f>Z3-E4</f>
-        <v>1303</v>
+        <v>1312</v>
       </c>
       <c r="AA4">
-        <f>MIN(Z4,AA3)-F4</f>
-        <v>1276</v>
+        <f>MAX(Z4,AA3)-F4</f>
+        <v>1286</v>
       </c>
       <c r="AB4">
-        <f>MIN(AA4,AB3)-G4</f>
-        <v>1246</v>
+        <f>MAX(AA4,AB3)-G4</f>
+        <v>1257</v>
       </c>
       <c r="AC4">
-        <f>MIN(AB4,AC3)-H4</f>
-        <v>1218</v>
+        <f>MAX(AB4,AC3)-H4</f>
+        <v>1231</v>
       </c>
       <c r="AD4">
-        <f>MIN(AC4,AD3)-I4</f>
-        <v>1189</v>
+        <f>MAX(AC4,AD3)-I4</f>
+        <v>1202</v>
       </c>
       <c r="AE4">
-        <f>MIN(AD4,AE3)-J4</f>
-        <v>1164</v>
+        <f>MAX(AD4,AE3)-J4</f>
+        <v>1177</v>
       </c>
       <c r="AF4">
-        <f>MIN(AE4,AF3)-K4</f>
-        <v>1137</v>
+        <f>MAX(AE4,AF3)-K4</f>
+        <v>1394</v>
       </c>
       <c r="AG4">
-        <f>MIN(AF4,AG3)-L4</f>
-        <v>1108</v>
+        <f>MAX(AF4,AG3)-L4</f>
+        <v>1366</v>
       </c>
       <c r="AH4">
-        <f>MIN(AG4,AH3)-M4</f>
-        <v>1079</v>
+        <f>MAX(AG4,AH3)-M4</f>
+        <v>1339</v>
       </c>
       <c r="AI4">
-        <f>MIN(AH4,AI3)-N4</f>
-        <v>1050</v>
+        <f>MAX(AH4,AI3)-N4</f>
+        <v>1313</v>
       </c>
       <c r="AJ4" s="11">
-        <f>MIN(AI4,AJ3)+O4</f>
-        <v>1468</v>
+        <f>MAX(AI4,AJ3)+O4</f>
+        <v>1731</v>
       </c>
       <c r="AK4">
-        <f>MIN(AJ4,AK3)-P4</f>
-        <v>993</v>
+        <f>MAX(AJ4,AK3)-P4</f>
+        <v>1702</v>
       </c>
       <c r="AL4">
-        <f>MIN(AK4,AL3)-Q4</f>
-        <v>964</v>
+        <f>MAX(AK4,AL3)-Q4</f>
+        <v>1673</v>
       </c>
       <c r="AM4" s="5">
-        <f>MIN(AL4,AM3)-R4</f>
-        <v>937</v>
+        <f>MAX(AL4,AM3)-R4</f>
+        <v>1646</v>
       </c>
       <c r="AN4" s="14">
         <f t="shared" si="3"/>
-        <v>911</v>
+        <v>1166</v>
       </c>
       <c r="AO4" s="5">
-        <f>MIN(AN4,AO3)-T4</f>
-        <v>885</v>
+        <f>MAX(AN4,AO3)-T4</f>
+        <v>1143</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1146,80 +1146,80 @@
         <v>1391</v>
       </c>
       <c r="W5">
-        <f>MIN(V5,W4)-B5</f>
-        <v>1352</v>
+        <f>MAX(V5,W4)-B5</f>
+        <v>1361</v>
       </c>
       <c r="X5">
-        <f>MIN(W5,X4)-C5</f>
-        <v>1325</v>
+        <f>MAX(W5,X4)-C5</f>
+        <v>1341</v>
       </c>
       <c r="Y5" s="5">
-        <f>MIN(X5,Y4)-D5</f>
-        <v>1297</v>
+        <f>MAX(X5,Y4)-D5</f>
+        <v>1313</v>
       </c>
       <c r="Z5" s="14">
         <f t="shared" ref="Z5:Z17" si="4">Z4-E5</f>
-        <v>1275</v>
+        <v>1284</v>
       </c>
       <c r="AA5">
-        <f>MIN(Z5,AA4)-F5</f>
-        <v>1249</v>
+        <f>MAX(Z5,AA4)-F5</f>
+        <v>1260</v>
       </c>
       <c r="AB5">
-        <f>MIN(AA5,AB4)-G5</f>
-        <v>1220</v>
+        <f>MAX(AA5,AB4)-G5</f>
+        <v>1234</v>
       </c>
       <c r="AC5">
-        <f>MIN(AB5,AC4)-H5</f>
-        <v>1190</v>
+        <f>MAX(AB5,AC4)-H5</f>
+        <v>1206</v>
       </c>
       <c r="AD5" s="7">
-        <f>MIN(AC5,AD4)-I5</f>
-        <v>1162</v>
+        <f>MAX(AC5,AD4)-I5</f>
+        <v>1179</v>
       </c>
       <c r="AE5" s="7">
-        <f>MIN(AD5,AE4)-J5</f>
-        <v>1137</v>
+        <f>MAX(AD5,AE4)-J5</f>
+        <v>1154</v>
       </c>
       <c r="AF5" s="7">
-        <f>MIN(AE5,AF4)-K5</f>
-        <v>1109</v>
+        <f>MAX(AE5,AF4)-K5</f>
+        <v>1366</v>
       </c>
       <c r="AG5" s="7">
-        <f>MIN(AF5,AG4)-L5</f>
-        <v>1078</v>
+        <f>MAX(AF5,AG4)-L5</f>
+        <v>1336</v>
       </c>
       <c r="AH5" s="7">
-        <f>MIN(AG5,AH4)-M5</f>
-        <v>1050</v>
+        <f>MAX(AG5,AH4)-M5</f>
+        <v>1311</v>
       </c>
       <c r="AI5">
-        <f>MIN(AH5,AI4)-N5</f>
-        <v>1023</v>
+        <f>MAX(AH5,AI4)-N5</f>
+        <v>1286</v>
       </c>
       <c r="AJ5">
-        <f>MIN(AI5,AJ4)-O5</f>
-        <v>995</v>
+        <f>MAX(AI5,AJ4)-O5</f>
+        <v>1703</v>
       </c>
       <c r="AK5">
-        <f>MIN(AJ5,AK4)-P5</f>
-        <v>965</v>
+        <f>MAX(AJ5,AK4)-P5</f>
+        <v>1675</v>
       </c>
       <c r="AL5">
-        <f>MIN(AK5,AL4)-Q5</f>
-        <v>936</v>
+        <f>MAX(AK5,AL4)-Q5</f>
+        <v>1647</v>
       </c>
       <c r="AM5" s="5">
-        <f>MIN(AL5,AM4)-R5</f>
-        <v>907</v>
+        <f>MAX(AL5,AM4)-R5</f>
+        <v>1618</v>
       </c>
       <c r="AN5" s="14">
         <f t="shared" si="3"/>
-        <v>881</v>
+        <v>1136</v>
       </c>
       <c r="AO5" s="5">
-        <f>MIN(AN5,AO4)-T5</f>
-        <v>853</v>
+        <f>MAX(AN5,AO4)-T5</f>
+        <v>1115</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
@@ -1288,80 +1288,80 @@
         <v>1363</v>
       </c>
       <c r="W6">
-        <f>MIN(V6,W5)-B6</f>
-        <v>1322</v>
+        <f>MAX(V6,W5)-B6</f>
+        <v>1333</v>
       </c>
       <c r="X6">
-        <f>MIN(W6,X5)-C6</f>
-        <v>1294</v>
+        <f>MAX(W6,X5)-C6</f>
+        <v>1313</v>
       </c>
       <c r="Y6" s="5">
-        <f>MIN(X6,Y5)-D6</f>
-        <v>1269</v>
+        <f>MAX(X6,Y5)-D6</f>
+        <v>1288</v>
       </c>
       <c r="Z6" s="14">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>1259</v>
       </c>
       <c r="AA6">
-        <f>MIN(Z6,AA5)-F6</f>
-        <v>1224</v>
+        <f>MAX(Z6,AA5)-F6</f>
+        <v>1235</v>
       </c>
       <c r="AB6">
-        <f>MIN(AA6,AB5)-G6</f>
-        <v>1191</v>
+        <f>MAX(AA6,AB5)-G6</f>
+        <v>1206</v>
       </c>
       <c r="AC6">
-        <f>MIN(AB6,AC5)-H6</f>
-        <v>1165</v>
+        <f>MAX(AB6,AC5)-H6</f>
+        <v>1181</v>
       </c>
       <c r="AD6" s="12">
         <f t="shared" ref="AD6" si="5">AC6-I6</f>
-        <v>1135</v>
+        <v>1151</v>
       </c>
       <c r="AE6" s="12">
         <f t="shared" ref="AE6" si="6">AD6-J6</f>
-        <v>1110</v>
+        <v>1126</v>
       </c>
       <c r="AF6" s="12">
         <f t="shared" ref="AF6" si="7">AE6-K6</f>
-        <v>1083</v>
+        <v>1099</v>
       </c>
       <c r="AG6" s="12">
         <f t="shared" ref="AG6" si="8">AF6-L6</f>
-        <v>1054</v>
+        <v>1070</v>
       </c>
       <c r="AH6" s="12">
         <f t="shared" ref="AH6" si="9">AG6-M6</f>
-        <v>1027</v>
+        <v>1043</v>
       </c>
       <c r="AI6">
-        <f>MIN(AH6,AI5)-N6</f>
-        <v>997</v>
+        <f>MAX(AH6,AI5)-N6</f>
+        <v>1260</v>
       </c>
       <c r="AJ6">
-        <f>MIN(AI6,AJ5)-O6</f>
-        <v>965</v>
+        <f>MAX(AI6,AJ5)-O6</f>
+        <v>1673</v>
       </c>
       <c r="AK6">
-        <f>MIN(AJ6,AK5)-P6</f>
-        <v>936</v>
+        <f>MAX(AJ6,AK5)-P6</f>
+        <v>1646</v>
       </c>
       <c r="AL6">
-        <f>MIN(AK6,AL5)-Q6</f>
-        <v>911</v>
+        <f>MAX(AK6,AL5)-Q6</f>
+        <v>1622</v>
       </c>
       <c r="AM6" s="5">
-        <f>MIN(AL6,AM5)-R6</f>
-        <v>878</v>
+        <f>MAX(AL6,AM5)-R6</f>
+        <v>1593</v>
       </c>
       <c r="AN6" s="14">
         <f t="shared" si="3"/>
-        <v>854</v>
+        <v>1109</v>
       </c>
       <c r="AO6" s="5">
-        <f>MIN(AN6,AO5)-T6</f>
-        <v>825</v>
+        <f>MAX(AN6,AO5)-T6</f>
+        <v>1087</v>
       </c>
     </row>
     <row r="7" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1430,80 +1430,80 @@
         <v>1334</v>
       </c>
       <c r="W7">
-        <f>MIN(V7,W6)-B7</f>
-        <v>1297</v>
+        <f>MAX(V7,W6)-B7</f>
+        <v>1309</v>
       </c>
       <c r="X7">
-        <f>MIN(W7,X6)-C7</f>
-        <v>1269</v>
+        <f>MAX(W7,X6)-C7</f>
+        <v>1288</v>
       </c>
       <c r="Y7" s="5">
-        <f>MIN(X7,Y6)-D7</f>
-        <v>1241</v>
+        <f>MAX(X7,Y6)-D7</f>
+        <v>1260</v>
       </c>
       <c r="Z7" s="14">
         <f t="shared" si="4"/>
-        <v>1220</v>
+        <v>1229</v>
       </c>
       <c r="AA7">
-        <f>MIN(Z7,AA6)-F7</f>
-        <v>1194</v>
+        <f>MAX(Z7,AA6)-F7</f>
+        <v>1209</v>
       </c>
       <c r="AB7" s="11">
-        <f>MIN(AA7,AB6)+G7</f>
-        <v>1358</v>
+        <f>MAX(AA7,AB6)+G7</f>
+        <v>1376</v>
       </c>
       <c r="AC7">
-        <f>MIN(AB7,AC6)-H7</f>
-        <v>1139</v>
+        <f>MAX(AB7,AC6)-H7</f>
+        <v>1350</v>
       </c>
       <c r="AD7">
-        <f>MIN(AC7,AD6)-I7</f>
-        <v>1105</v>
+        <f>MAX(AC7,AD6)-I7</f>
+        <v>1320</v>
       </c>
       <c r="AE7">
-        <f>MIN(AD7,AE6)-J7</f>
-        <v>1079</v>
+        <f>MAX(AD7,AE6)-J7</f>
+        <v>1294</v>
       </c>
       <c r="AF7">
-        <f>MIN(AE7,AF6)-K7</f>
-        <v>1052</v>
+        <f>MAX(AE7,AF6)-K7</f>
+        <v>1267</v>
       </c>
       <c r="AG7">
-        <f>MIN(AF7,AG6)-L7</f>
-        <v>1027</v>
+        <f>MAX(AF7,AG6)-L7</f>
+        <v>1242</v>
       </c>
       <c r="AH7">
-        <f>MIN(AG7,AH6)-M7</f>
-        <v>1002</v>
+        <f>MAX(AG7,AH6)-M7</f>
+        <v>1217</v>
       </c>
       <c r="AI7">
-        <f>MIN(AH7,AI6)-N7</f>
-        <v>968</v>
+        <f>MAX(AH7,AI6)-N7</f>
+        <v>1231</v>
       </c>
       <c r="AJ7">
-        <f>MIN(AI7,AJ6)-O7</f>
-        <v>939</v>
+        <f>MAX(AI7,AJ6)-O7</f>
+        <v>1647</v>
       </c>
       <c r="AK7">
-        <f>MIN(AJ7,AK6)-P7</f>
-        <v>907</v>
+        <f>MAX(AJ7,AK6)-P7</f>
+        <v>1618</v>
       </c>
       <c r="AL7">
-        <f>MIN(AK7,AL6)-Q7</f>
-        <v>878</v>
+        <f>MAX(AK7,AL6)-Q7</f>
+        <v>1593</v>
       </c>
       <c r="AM7" s="5">
-        <f>MIN(AL7,AM6)-R7</f>
-        <v>850</v>
+        <f>MAX(AL7,AM6)-R7</f>
+        <v>1565</v>
       </c>
       <c r="AN7" s="14">
         <f t="shared" si="3"/>
-        <v>824</v>
+        <v>1079</v>
       </c>
       <c r="AO7" s="5">
-        <f>MIN(AN7,AO6)-T7</f>
-        <v>794</v>
+        <f>MAX(AN7,AO6)-T7</f>
+        <v>1057</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1572,80 +1572,80 @@
         <v>1308</v>
       </c>
       <c r="W8">
-        <f>MIN(V8,W7)-B8</f>
-        <v>1269</v>
+        <f>MAX(V8,W7)-B8</f>
+        <v>1281</v>
       </c>
       <c r="X8">
-        <f>MIN(W8,X7)-C8</f>
-        <v>1241</v>
+        <f>MAX(W8,X7)-C8</f>
+        <v>1260</v>
       </c>
       <c r="Y8" s="5">
-        <f>MIN(X8,Y7)-D8</f>
-        <v>1212</v>
+        <f>MAX(X8,Y7)-D8</f>
+        <v>1231</v>
       </c>
       <c r="Z8" s="14">
         <f t="shared" si="4"/>
-        <v>1194</v>
+        <v>1203</v>
       </c>
       <c r="AA8">
-        <f>MIN(Z8,AA7)-F8</f>
-        <v>1164</v>
+        <f>MAX(Z8,AA7)-F8</f>
+        <v>1179</v>
       </c>
       <c r="AB8">
-        <f>MIN(AA8,AB7)-G8</f>
-        <v>1135</v>
+        <f>MAX(AA8,AB7)-G8</f>
+        <v>1347</v>
       </c>
       <c r="AC8">
-        <f>MIN(AB8,AC7)-H8</f>
-        <v>1106</v>
+        <f>MAX(AB8,AC7)-H8</f>
+        <v>1321</v>
       </c>
       <c r="AD8">
-        <f>MIN(AC8,AD7)-I8</f>
-        <v>1080</v>
+        <f>MAX(AC8,AD7)-I8</f>
+        <v>1296</v>
       </c>
       <c r="AE8">
-        <f>MIN(AD8,AE7)-J8</f>
-        <v>1050</v>
+        <f>MAX(AD8,AE7)-J8</f>
+        <v>1267</v>
       </c>
       <c r="AF8" s="7">
-        <f>MIN(AE8,AF7)-K8</f>
-        <v>1024</v>
+        <f>MAX(AE8,AF7)-K8</f>
+        <v>1241</v>
       </c>
       <c r="AG8" s="7">
-        <f>MIN(AF8,AG7)-L8</f>
-        <v>998</v>
+        <f>MAX(AF8,AG7)-L8</f>
+        <v>1216</v>
       </c>
       <c r="AH8" s="7">
-        <f>MIN(AG8,AH7)-M8</f>
-        <v>968</v>
+        <f>MAX(AG8,AH7)-M8</f>
+        <v>1187</v>
       </c>
       <c r="AI8" s="7">
-        <f>MIN(AH8,AI7)-N8</f>
-        <v>943</v>
+        <f>MAX(AH8,AI7)-N8</f>
+        <v>1206</v>
       </c>
       <c r="AJ8" s="7">
-        <f>MIN(AI8,AJ7)-O8</f>
-        <v>910</v>
+        <f>MAX(AI8,AJ7)-O8</f>
+        <v>1618</v>
       </c>
       <c r="AK8" s="5">
-        <f>MIN(AJ8,AK7)-P8</f>
-        <v>879</v>
+        <f>MAX(AJ8,AK7)-P8</f>
+        <v>1590</v>
       </c>
       <c r="AL8" s="14">
         <f t="shared" ref="AL8:AL12" si="10">AL7-Q8</f>
-        <v>853</v>
+        <v>1568</v>
       </c>
       <c r="AM8" s="5">
-        <f>MIN(AL8,AM7)-R8</f>
-        <v>823</v>
+        <f>MAX(AL8,AM7)-R8</f>
+        <v>1541</v>
       </c>
       <c r="AN8" s="14">
         <f t="shared" si="3"/>
-        <v>794</v>
+        <v>1049</v>
       </c>
       <c r="AO8" s="5">
-        <f>MIN(AN8,AO7)-T8</f>
-        <v>766</v>
+        <f>MAX(AN8,AO7)-T8</f>
+        <v>1029</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.3">
@@ -1714,80 +1714,80 @@
         <v>1279</v>
       </c>
       <c r="W9" s="5">
-        <f>MIN(V9,W8)-B9</f>
-        <v>1243</v>
+        <f>MAX(V9,W8)-B9</f>
+        <v>1255</v>
       </c>
       <c r="X9" s="14">
         <f>X8-C9</f>
-        <v>1211</v>
+        <v>1230</v>
       </c>
       <c r="Y9" s="5">
-        <f>MIN(X9,Y8)-D9</f>
-        <v>1182</v>
+        <f>MAX(X9,Y8)-D9</f>
+        <v>1202</v>
       </c>
       <c r="Z9" s="14">
         <f t="shared" si="4"/>
-        <v>1167</v>
+        <v>1176</v>
       </c>
       <c r="AA9">
-        <f>MIN(Z9,AA8)-F9</f>
-        <v>1136</v>
+        <f>MAX(Z9,AA8)-F9</f>
+        <v>1151</v>
       </c>
       <c r="AB9">
-        <f>MIN(AA9,AB8)-G9</f>
-        <v>1107</v>
+        <f>MAX(AA9,AB8)-G9</f>
+        <v>1319</v>
       </c>
       <c r="AC9">
-        <f>MIN(AB9,AC8)-H9</f>
-        <v>1081</v>
+        <f>MAX(AB9,AC8)-H9</f>
+        <v>1296</v>
       </c>
       <c r="AD9">
-        <f>MIN(AC9,AD8)-I9</f>
-        <v>1052</v>
+        <f>MAX(AC9,AD8)-I9</f>
+        <v>1268</v>
       </c>
       <c r="AE9">
-        <f>MIN(AD9,AE8)-J9</f>
-        <v>1025</v>
+        <f>MAX(AD9,AE8)-J9</f>
+        <v>1243</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" ref="AF9" si="11">AE9-K9</f>
-        <v>1000</v>
+        <v>1218</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" ref="AG9" si="12">AF9-L9</f>
-        <v>973</v>
+        <v>1191</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" ref="AH9" si="13">AG9-M9</f>
-        <v>944</v>
+        <v>1162</v>
       </c>
       <c r="AI9" s="12">
         <f t="shared" ref="AI9" si="14">AH9-N9</f>
-        <v>915</v>
+        <v>1133</v>
       </c>
       <c r="AJ9" s="12">
         <f t="shared" ref="AJ9" si="15">AI9-O9</f>
-        <v>888</v>
+        <v>1106</v>
       </c>
       <c r="AK9" s="5">
-        <f>MIN(AJ9,AK8)-P9</f>
-        <v>853</v>
+        <f>MAX(AJ9,AK8)-P9</f>
+        <v>1564</v>
       </c>
       <c r="AL9" s="14">
         <f t="shared" si="10"/>
-        <v>824</v>
+        <v>1539</v>
       </c>
       <c r="AM9" s="5">
-        <f>MIN(AL9,AM8)-R9</f>
-        <v>796</v>
+        <f>MAX(AL9,AM8)-R9</f>
+        <v>1514</v>
       </c>
       <c r="AN9" s="14">
         <f t="shared" si="3"/>
-        <v>766</v>
+        <v>1021</v>
       </c>
       <c r="AO9" s="5">
-        <f>MIN(AN9,AO8)-T9</f>
-        <v>740</v>
+        <f>MAX(AN9,AO8)-T9</f>
+        <v>1003</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.3">
@@ -1856,80 +1856,80 @@
         <v>1253</v>
       </c>
       <c r="W10" s="5">
-        <f>MIN(V10,W9)-B10</f>
-        <v>1215</v>
+        <f>MAX(V10,W9)-B10</f>
+        <v>1227</v>
       </c>
       <c r="X10" s="14">
         <f t="shared" ref="X10:X13" si="16">X9-C10</f>
-        <v>1183</v>
+        <v>1202</v>
       </c>
       <c r="Y10" s="5">
-        <f>MIN(X10,Y9)-D10</f>
-        <v>1157</v>
+        <f>MAX(X10,Y9)-D10</f>
+        <v>1177</v>
       </c>
       <c r="Z10" s="14">
         <f t="shared" si="4"/>
-        <v>1141</v>
+        <v>1150</v>
       </c>
       <c r="AA10">
-        <f>MIN(Z10,AA9)-F10</f>
-        <v>1109</v>
+        <f>MAX(Z10,AA9)-F10</f>
+        <v>1124</v>
       </c>
       <c r="AB10">
-        <f>MIN(AA10,AB9)-G10</f>
-        <v>1077</v>
+        <f>MAX(AA10,AB9)-G10</f>
+        <v>1289</v>
       </c>
       <c r="AC10">
-        <f>MIN(AB10,AC9)-H10</f>
-        <v>1050</v>
+        <f>MAX(AB10,AC9)-H10</f>
+        <v>1269</v>
       </c>
       <c r="AD10">
-        <f>MIN(AC10,AD9)-I10</f>
-        <v>1023</v>
+        <f>MAX(AC10,AD9)-I10</f>
+        <v>1242</v>
       </c>
       <c r="AE10">
-        <f>MIN(AD10,AE9)-J10</f>
-        <v>996</v>
+        <f>MAX(AD10,AE9)-J10</f>
+        <v>1216</v>
       </c>
       <c r="AF10">
-        <f>MIN(AE10,AF9)-K10</f>
-        <v>966</v>
+        <f>MAX(AE10,AF9)-K10</f>
+        <v>1188</v>
       </c>
       <c r="AG10">
-        <f>MIN(AF10,AG9)-L10</f>
-        <v>940</v>
+        <f>MAX(AF10,AG9)-L10</f>
+        <v>1165</v>
       </c>
       <c r="AH10">
-        <f>MIN(AG10,AH9)-M10</f>
-        <v>910</v>
+        <f>MAX(AG10,AH9)-M10</f>
+        <v>1135</v>
       </c>
       <c r="AI10">
-        <f>MIN(AH10,AI9)-N10</f>
-        <v>885</v>
+        <f>MAX(AH10,AI9)-N10</f>
+        <v>1110</v>
       </c>
       <c r="AJ10">
-        <f>MIN(AI10,AJ9)-O10</f>
-        <v>860</v>
+        <f>MAX(AI10,AJ9)-O10</f>
+        <v>1085</v>
       </c>
       <c r="AK10" s="5">
-        <f>MIN(AJ10,AK9)-P10</f>
-        <v>827</v>
+        <f>MAX(AJ10,AK9)-P10</f>
+        <v>1538</v>
       </c>
       <c r="AL10" s="14">
         <f t="shared" si="10"/>
-        <v>795</v>
+        <v>1510</v>
       </c>
       <c r="AM10" s="5">
-        <f>MIN(AL10,AM9)-R10</f>
-        <v>770</v>
+        <f>MAX(AL10,AM9)-R10</f>
+        <v>1489</v>
       </c>
       <c r="AN10" s="14">
         <f t="shared" si="3"/>
-        <v>740</v>
+        <v>995</v>
       </c>
       <c r="AO10" s="5">
-        <f>MIN(AN10,AO9)-T10</f>
-        <v>712</v>
+        <f>MAX(AN10,AO9)-T10</f>
+        <v>975</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1998,80 +1998,80 @@
         <v>1223</v>
       </c>
       <c r="W11" s="5">
-        <f>MIN(V11,W10)-B11</f>
-        <v>1185</v>
+        <f>MAX(V11,W10)-B11</f>
+        <v>1197</v>
       </c>
       <c r="X11" s="14">
         <f t="shared" si="16"/>
-        <v>1156</v>
+        <v>1175</v>
       </c>
       <c r="Y11" s="5">
-        <f>MIN(X11,Y10)-D11</f>
-        <v>1127</v>
+        <f>MAX(X11,Y10)-D11</f>
+        <v>1148</v>
       </c>
       <c r="Z11" s="14">
         <f t="shared" si="4"/>
-        <v>1115</v>
+        <v>1124</v>
       </c>
       <c r="AA11">
-        <f>MIN(Z11,AA10)-F11</f>
-        <v>1083</v>
+        <f>MAX(Z11,AA10)-F11</f>
+        <v>1098</v>
       </c>
       <c r="AB11">
-        <f>MIN(AA11,AB10)-G11</f>
-        <v>1047</v>
+        <f>MAX(AA11,AB10)-G11</f>
+        <v>1259</v>
       </c>
       <c r="AC11">
-        <f>MIN(AB11,AC10)-H11</f>
-        <v>1022</v>
+        <f>MAX(AB11,AC10)-H11</f>
+        <v>1244</v>
       </c>
       <c r="AD11">
-        <f>MIN(AC11,AD10)-I11</f>
-        <v>997</v>
+        <f>MAX(AC11,AD10)-I11</f>
+        <v>1219</v>
       </c>
       <c r="AE11">
-        <f>MIN(AD11,AE10)-J11</f>
-        <v>966</v>
+        <f>MAX(AD11,AE10)-J11</f>
+        <v>1189</v>
       </c>
       <c r="AF11" s="7">
-        <f>MIN(AE11,AF10)-K11</f>
-        <v>940</v>
+        <f>MAX(AE11,AF10)-K11</f>
+        <v>1163</v>
       </c>
       <c r="AG11" s="7">
-        <f>MIN(AF11,AG10)-L11</f>
-        <v>913</v>
+        <f>MAX(AF11,AG10)-L11</f>
+        <v>1138</v>
       </c>
       <c r="AH11" s="7">
-        <f>MIN(AG11,AH10)-M11</f>
-        <v>883</v>
+        <f>MAX(AG11,AH10)-M11</f>
+        <v>1111</v>
       </c>
       <c r="AI11" s="7">
-        <f>MIN(AH11,AI10)-N11</f>
-        <v>858</v>
+        <f>MAX(AH11,AI10)-N11</f>
+        <v>1086</v>
       </c>
       <c r="AJ11" s="7">
-        <f>MIN(AI11,AJ10)-O11</f>
-        <v>833</v>
+        <f>MAX(AI11,AJ10)-O11</f>
+        <v>1061</v>
       </c>
       <c r="AK11" s="5">
-        <f>MIN(AJ11,AK10)-P11</f>
-        <v>802</v>
+        <f>MAX(AJ11,AK10)-P11</f>
+        <v>1513</v>
       </c>
       <c r="AL11" s="14">
         <f t="shared" si="10"/>
-        <v>765</v>
+        <v>1480</v>
       </c>
       <c r="AM11" s="5">
-        <f>MIN(AL11,AM10)-R11</f>
-        <v>737</v>
+        <f>MAX(AL11,AM10)-R11</f>
+        <v>1461</v>
       </c>
       <c r="AN11" s="14">
         <f t="shared" si="3"/>
-        <v>714</v>
+        <v>969</v>
       </c>
       <c r="AO11" s="5">
-        <f>MIN(AN11,AO10)-T11</f>
-        <v>687</v>
+        <f>MAX(AN11,AO10)-T11</f>
+        <v>950</v>
       </c>
     </row>
     <row r="12" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2140,80 +2140,80 @@
         <v>1196</v>
       </c>
       <c r="W12" s="5">
-        <f>MIN(V12,W11)-B12</f>
-        <v>1159</v>
+        <f>MAX(V12,W11)-B12</f>
+        <v>1171</v>
       </c>
       <c r="X12" s="14">
         <f t="shared" si="16"/>
-        <v>1127</v>
+        <v>1146</v>
       </c>
       <c r="Y12" s="5">
-        <f>MIN(X12,Y11)-D12</f>
-        <v>1102</v>
+        <f>MAX(X12,Y11)-D12</f>
+        <v>1123</v>
       </c>
       <c r="Z12" s="14">
         <f t="shared" si="4"/>
-        <v>1086</v>
+        <v>1095</v>
       </c>
       <c r="AA12">
-        <f>MIN(Z12,AA11)-F12</f>
-        <v>1058</v>
+        <f>MAX(Z12,AA11)-F12</f>
+        <v>1073</v>
       </c>
       <c r="AB12">
-        <f>MIN(AA12,AB11)-G12</f>
-        <v>1017</v>
+        <f>MAX(AA12,AB11)-G12</f>
+        <v>1229</v>
       </c>
       <c r="AC12">
-        <f>MIN(AB12,AC11)-H12</f>
-        <v>990</v>
+        <f>MAX(AB12,AC11)-H12</f>
+        <v>1217</v>
       </c>
       <c r="AD12" s="11">
-        <f>MIN(AC12,AD11)+I12</f>
-        <v>1084</v>
+        <f>MAX(AC12,AD11)+I12</f>
+        <v>1313</v>
       </c>
       <c r="AE12">
-        <f>MIN(AD12,AE11)-J12</f>
-        <v>937</v>
+        <f>MAX(AD12,AE11)-J12</f>
+        <v>1284</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" ref="AF12" si="17">AE12-K12</f>
-        <v>908</v>
+        <v>1255</v>
       </c>
       <c r="AG12" s="12">
         <f t="shared" ref="AG12" si="18">AF12-L12</f>
-        <v>882</v>
+        <v>1229</v>
       </c>
       <c r="AH12" s="12">
         <f t="shared" ref="AH12" si="19">AG12-M12</f>
-        <v>857</v>
+        <v>1204</v>
       </c>
       <c r="AI12" s="12">
         <f t="shared" ref="AI12" si="20">AH12-N12</f>
-        <v>827</v>
+        <v>1174</v>
       </c>
       <c r="AJ12" s="12">
         <f t="shared" ref="AJ12" si="21">AI12-O12</f>
-        <v>798</v>
+        <v>1145</v>
       </c>
       <c r="AK12" s="5">
-        <f>MIN(AJ12,AK11)-P12</f>
-        <v>773</v>
+        <f>MAX(AJ12,AK11)-P12</f>
+        <v>1488</v>
       </c>
       <c r="AL12" s="14">
         <f t="shared" si="10"/>
-        <v>737</v>
+        <v>1452</v>
       </c>
       <c r="AM12" s="5">
-        <f>MIN(AL12,AM11)-R12</f>
-        <v>707</v>
+        <f>MAX(AL12,AM11)-R12</f>
+        <v>1431</v>
       </c>
       <c r="AN12" s="14">
         <f t="shared" si="3"/>
-        <v>688</v>
+        <v>943</v>
       </c>
       <c r="AO12" s="5">
-        <f>MIN(AN12,AO11)-T12</f>
-        <v>661</v>
+        <f>MAX(AN12,AO11)-T12</f>
+        <v>924</v>
       </c>
     </row>
     <row r="13" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2282,80 +2282,80 @@
         <v>1171</v>
       </c>
       <c r="W13" s="5">
-        <f>MIN(V13,W12)-B13</f>
-        <v>1130</v>
+        <f>MAX(V13,W12)-B13</f>
+        <v>1142</v>
       </c>
       <c r="X13" s="14">
         <f t="shared" si="16"/>
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="Y13" s="11">
-        <f>MIN(X13,Y12)+D13</f>
-        <v>1213</v>
+        <f>MAX(X13,Y12)+D13</f>
+        <v>1236</v>
       </c>
       <c r="Z13" s="14">
         <f t="shared" si="4"/>
-        <v>1057</v>
+        <v>1066</v>
       </c>
       <c r="AA13">
-        <f>MIN(Z13,AA12)-F13</f>
-        <v>1032</v>
+        <f>MAX(Z13,AA12)-F13</f>
+        <v>1048</v>
       </c>
       <c r="AB13">
-        <f>MIN(AA13,AB12)-G13</f>
-        <v>987</v>
+        <f>MAX(AA13,AB12)-G13</f>
+        <v>1199</v>
       </c>
       <c r="AC13">
-        <f>MIN(AB13,AC12)-H13</f>
-        <v>960</v>
+        <f>MAX(AB13,AC12)-H13</f>
+        <v>1190</v>
       </c>
       <c r="AD13">
-        <f>MIN(AC13,AD12)-I13</f>
-        <v>935</v>
+        <f>MAX(AC13,AD12)-I13</f>
+        <v>1288</v>
       </c>
       <c r="AE13">
-        <f>MIN(AD13,AE12)-J13</f>
-        <v>906</v>
+        <f>MAX(AD13,AE12)-J13</f>
+        <v>1259</v>
       </c>
       <c r="AF13">
-        <f>MIN(AE13,AF12)-K13</f>
-        <v>881</v>
+        <f>MAX(AE13,AF12)-K13</f>
+        <v>1234</v>
       </c>
       <c r="AG13">
-        <f>MIN(AF13,AG12)-L13</f>
-        <v>855</v>
+        <f>MAX(AF13,AG12)-L13</f>
+        <v>1208</v>
       </c>
       <c r="AH13">
-        <f>MIN(AG13,AH12)-M13</f>
-        <v>825</v>
+        <f>MAX(AG13,AH12)-M13</f>
+        <v>1178</v>
       </c>
       <c r="AI13">
-        <f>MIN(AH13,AI12)-N13</f>
-        <v>798</v>
+        <f>MAX(AH13,AI12)-N13</f>
+        <v>1151</v>
       </c>
       <c r="AJ13">
-        <f>MIN(AI13,AJ12)-O13</f>
-        <v>772</v>
+        <f>MAX(AI13,AJ12)-O13</f>
+        <v>1125</v>
       </c>
       <c r="AK13">
-        <f>MIN(AJ13,AK12)-P13</f>
-        <v>745</v>
+        <f>MAX(AJ13,AK12)-P13</f>
+        <v>1461</v>
       </c>
       <c r="AL13">
-        <f>MIN(AK13,AL12)-Q13</f>
-        <v>707</v>
+        <f>MAX(AK13,AL12)-Q13</f>
+        <v>1431</v>
       </c>
       <c r="AM13" s="5">
-        <f>MIN(AL13,AM12)-R13</f>
-        <v>681</v>
+        <f>MAX(AL13,AM12)-R13</f>
+        <v>1405</v>
       </c>
       <c r="AN13" s="11">
-        <f>MIN(AM13,AN12)+S13</f>
-        <v>893</v>
+        <f>MAX(AN12)-S13</f>
+        <v>731</v>
       </c>
       <c r="AO13" s="5">
-        <f>MIN(AN13,AO12)-T13</f>
-        <v>633</v>
+        <f>MAX(AN13,AO12)-T13</f>
+        <v>896</v>
       </c>
     </row>
     <row r="14" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2424,80 +2424,80 @@
         <v>1144</v>
       </c>
       <c r="W14">
-        <f>MIN(V14,W13)-B14</f>
-        <v>1100</v>
+        <f>MAX(V14,W13)-B14</f>
+        <v>1114</v>
       </c>
       <c r="X14">
-        <f>MIN(W14,X13)-C14</f>
-        <v>1070</v>
+        <f>MAX(W14,X13)-C14</f>
+        <v>1089</v>
       </c>
       <c r="Y14" s="5">
-        <f>MIN(X14,Y13)-D14</f>
-        <v>1044</v>
+        <f>MAX(X14,Y13)-D14</f>
+        <v>1210</v>
       </c>
       <c r="Z14" s="14">
         <f t="shared" si="4"/>
-        <v>1029</v>
+        <v>1038</v>
       </c>
       <c r="AA14">
-        <f>MIN(Z14,AA13)-F14</f>
-        <v>1002</v>
+        <f>MAX(Z14,AA13)-F14</f>
+        <v>1021</v>
       </c>
       <c r="AB14">
-        <f>MIN(AA14,AB13)-G14</f>
-        <v>962</v>
+        <f>MAX(AA14,AB13)-G14</f>
+        <v>1174</v>
       </c>
       <c r="AC14">
-        <f>MIN(AB14,AC13)-H14</f>
-        <v>931</v>
+        <f>MAX(AB14,AC13)-H14</f>
+        <v>1161</v>
       </c>
       <c r="AD14" s="7">
-        <f>MIN(AC14,AD13)-I14</f>
-        <v>905</v>
+        <f>MAX(AC14,AD13)-I14</f>
+        <v>1262</v>
       </c>
       <c r="AE14" s="7">
-        <f>MIN(AD14,AE13)-J14</f>
-        <v>878</v>
+        <f>MAX(AD14,AE13)-J14</f>
+        <v>1235</v>
       </c>
       <c r="AF14" s="7">
-        <f>MIN(AE14,AF13)-K14</f>
-        <v>848</v>
+        <f>MAX(AE14,AF13)-K14</f>
+        <v>1205</v>
       </c>
       <c r="AG14" s="7">
-        <f>MIN(AF14,AG13)-L14</f>
-        <v>822</v>
+        <f>MAX(AF14,AG13)-L14</f>
+        <v>1182</v>
       </c>
       <c r="AH14" s="7">
-        <f>MIN(AG14,AH13)-M14</f>
-        <v>794</v>
+        <f>MAX(AG14,AH13)-M14</f>
+        <v>1154</v>
       </c>
       <c r="AI14">
-        <f>MIN(AH14,AI13)-N14</f>
-        <v>766</v>
+        <f>MAX(AH14,AI13)-N14</f>
+        <v>1126</v>
       </c>
       <c r="AJ14">
-        <f>MIN(AI14,AJ13)-O14</f>
-        <v>738</v>
+        <f>MAX(AI14,AJ13)-O14</f>
+        <v>1098</v>
       </c>
       <c r="AK14">
-        <f>MIN(AJ14,AK13)-P14</f>
-        <v>708</v>
+        <f>MAX(AJ14,AK13)-P14</f>
+        <v>1431</v>
       </c>
       <c r="AL14">
-        <f>MIN(AK14,AL13)-Q14</f>
-        <v>681</v>
+        <f>MAX(AK14,AL13)-Q14</f>
+        <v>1405</v>
       </c>
       <c r="AM14" s="5">
-        <f>MIN(AL14,AM13)-R14</f>
-        <v>652</v>
+        <f>MAX(AL14,AM13)-R14</f>
+        <v>1376</v>
       </c>
       <c r="AN14" s="14">
         <f t="shared" si="3"/>
+        <v>704</v>
+      </c>
+      <c r="AO14" s="5">
+        <f>MAX(AN14,AO13)-T14</f>
         <v>866</v>
-      </c>
-      <c r="AO14" s="5">
-        <f>MIN(AN14,AO13)-T14</f>
-        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2566,80 +2566,80 @@
         <v>1118</v>
       </c>
       <c r="W15">
-        <f>MIN(V15,W14)-B15</f>
-        <v>1073</v>
+        <f>MAX(V15,W14)-B15</f>
+        <v>1091</v>
       </c>
       <c r="X15">
-        <f>MIN(W15,X14)-C15</f>
-        <v>1042</v>
+        <f>MAX(W15,X14)-C15</f>
+        <v>1063</v>
       </c>
       <c r="Y15" s="5">
-        <f>MIN(X15,Y14)-D15</f>
-        <v>1015</v>
+        <f>MAX(X15,Y14)-D15</f>
+        <v>1183</v>
       </c>
       <c r="Z15" s="14">
         <f t="shared" si="4"/>
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="AA15">
-        <f>MIN(Z15,AA14)-F15</f>
-        <v>974</v>
+        <f>MAX(Z15,AA14)-F15</f>
+        <v>993</v>
       </c>
       <c r="AB15">
-        <f>MIN(AA15,AB14)-G15</f>
-        <v>936</v>
+        <f>MAX(AA15,AB14)-G15</f>
+        <v>1148</v>
       </c>
       <c r="AC15">
-        <f>MIN(AB15,AC14)-H15</f>
-        <v>905</v>
+        <f>MAX(AB15,AC14)-H15</f>
+        <v>1135</v>
       </c>
       <c r="AD15" s="12">
         <f t="shared" ref="AD15" si="22">AC15-I15</f>
-        <v>879</v>
+        <v>1109</v>
       </c>
       <c r="AE15" s="12">
         <f t="shared" ref="AE15" si="23">AD15-J15</f>
-        <v>851</v>
+        <v>1081</v>
       </c>
       <c r="AF15" s="12">
         <f t="shared" ref="AF15" si="24">AE15-K15</f>
-        <v>822</v>
+        <v>1052</v>
       </c>
       <c r="AG15" s="12">
         <f t="shared" ref="AG15" si="25">AF15-L15</f>
-        <v>795</v>
+        <v>1025</v>
       </c>
       <c r="AH15" s="12">
         <f t="shared" ref="AH15" si="26">AG15-M15</f>
-        <v>769</v>
+        <v>999</v>
       </c>
       <c r="AI15">
-        <f>MIN(AH15,AI14)-N15</f>
-        <v>738</v>
+        <f>MAX(AH15,AI14)-N15</f>
+        <v>1098</v>
       </c>
       <c r="AJ15" s="11">
-        <f>MIN(AI15,AJ14)+O15</f>
-        <v>1058</v>
+        <f>MAX(AI15,AJ14)+O15</f>
+        <v>1418</v>
       </c>
       <c r="AK15">
-        <f>MIN(AJ15,AK14)-P15</f>
-        <v>678</v>
+        <f>MAX(AJ15,AK14)-P15</f>
+        <v>1401</v>
       </c>
       <c r="AL15">
-        <f>MIN(AK15,AL14)-Q15</f>
-        <v>648</v>
+        <f>MAX(AK15,AL14)-Q15</f>
+        <v>1375</v>
       </c>
       <c r="AM15" s="5">
-        <f>MIN(AL15,AM14)-R15</f>
-        <v>619</v>
+        <f>MAX(AL15,AM14)-R15</f>
+        <v>1347</v>
       </c>
       <c r="AN15" s="14">
         <f t="shared" si="3"/>
-        <v>839</v>
+        <v>677</v>
       </c>
       <c r="AO15" s="5">
-        <f>MIN(AN15,AO14)-T15</f>
-        <v>574</v>
+        <f>MAX(AN15,AO14)-T15</f>
+        <v>837</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
@@ -2708,80 +2708,80 @@
         <v>1091</v>
       </c>
       <c r="W16">
-        <f>MIN(V16,W15)-B16</f>
-        <v>1046</v>
+        <f>MAX(V16,W15)-B16</f>
+        <v>1064</v>
       </c>
       <c r="X16">
-        <f>MIN(W16,X15)-C16</f>
-        <v>1016</v>
+        <f>MAX(W16,X15)-C16</f>
+        <v>1038</v>
       </c>
       <c r="Y16" s="5">
-        <f>MIN(X16,Y15)-D16</f>
-        <v>985</v>
+        <f>MAX(X16,Y15)-D16</f>
+        <v>1153</v>
       </c>
       <c r="Z16" s="14">
         <f t="shared" si="4"/>
-        <v>977</v>
+        <v>986</v>
       </c>
       <c r="AA16">
-        <f>MIN(Z16,AA15)-F16</f>
-        <v>945</v>
+        <f>MAX(Z16,AA15)-F16</f>
+        <v>964</v>
       </c>
       <c r="AB16">
-        <f>MIN(AA16,AB15)-G16</f>
-        <v>909</v>
+        <f>MAX(AA16,AB15)-G16</f>
+        <v>1121</v>
       </c>
       <c r="AC16">
-        <f>MIN(AB16,AC15)-H16</f>
-        <v>877</v>
+        <f>MAX(AB16,AC15)-H16</f>
+        <v>1107</v>
       </c>
       <c r="AD16">
-        <f>MIN(AC16,AD15)-I16</f>
-        <v>847</v>
+        <f>MAX(AC16,AD15)-I16</f>
+        <v>1079</v>
       </c>
       <c r="AE16">
-        <f>MIN(AD16,AE15)-J16</f>
-        <v>820</v>
+        <f>MAX(AD16,AE15)-J16</f>
+        <v>1054</v>
       </c>
       <c r="AF16">
-        <f>MIN(AE16,AF15)-K16</f>
-        <v>792</v>
+        <f>MAX(AE16,AF15)-K16</f>
+        <v>1026</v>
       </c>
       <c r="AG16">
-        <f>MIN(AF16,AG15)-L16</f>
-        <v>762</v>
+        <f>MAX(AF16,AG15)-L16</f>
+        <v>996</v>
       </c>
       <c r="AH16">
-        <f>MIN(AG16,AH15)-M16</f>
-        <v>736</v>
+        <f>MAX(AG16,AH15)-M16</f>
+        <v>973</v>
       </c>
       <c r="AI16">
-        <f>MIN(AH16,AI15)-N16</f>
-        <v>707</v>
+        <f>MAX(AH16,AI15)-N16</f>
+        <v>1069</v>
       </c>
       <c r="AJ16">
-        <f>MIN(AI16,AJ15)-O16</f>
-        <v>678</v>
+        <f>MAX(AI16,AJ15)-O16</f>
+        <v>1389</v>
       </c>
       <c r="AK16">
-        <f>MIN(AJ16,AK15)-P16</f>
-        <v>650</v>
+        <f>MAX(AJ16,AK15)-P16</f>
+        <v>1373</v>
       </c>
       <c r="AL16">
-        <f>MIN(AK16,AL15)-Q16</f>
-        <v>620</v>
+        <f>MAX(AK16,AL15)-Q16</f>
+        <v>1347</v>
       </c>
       <c r="AM16" s="5">
-        <f>MIN(AL16,AM15)-R16</f>
-        <v>593</v>
+        <f>MAX(AL16,AM15)-R16</f>
+        <v>1321</v>
       </c>
       <c r="AN16" s="14">
         <f t="shared" si="3"/>
-        <v>813</v>
+        <v>651</v>
       </c>
       <c r="AO16" s="5">
-        <f>MIN(AN16,AO15)-T16</f>
-        <v>549</v>
+        <f>MAX(AN16,AO15)-T16</f>
+        <v>812</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.3">
@@ -2850,80 +2850,80 @@
         <v>1062</v>
       </c>
       <c r="W17">
-        <f>MIN(V17,W16)-B17</f>
-        <v>1016</v>
+        <f>MAX(V17,W16)-B17</f>
+        <v>1034</v>
       </c>
       <c r="X17">
-        <f>MIN(W17,X16)-C17</f>
-        <v>986</v>
+        <f>MAX(W17,X16)-C17</f>
+        <v>1008</v>
       </c>
       <c r="Y17" s="5">
-        <f>MIN(X17,Y16)-D17</f>
-        <v>956</v>
+        <f>MAX(X17,Y16)-D17</f>
+        <v>1124</v>
       </c>
       <c r="Z17" s="14">
         <f t="shared" si="4"/>
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="AA17">
-        <f>MIN(Z17,AA16)-F17</f>
-        <v>919</v>
+        <f>MAX(Z17,AA16)-F17</f>
+        <v>938</v>
       </c>
       <c r="AB17">
-        <f>MIN(AA17,AB16)-G17</f>
-        <v>881</v>
+        <f>MAX(AA17,AB16)-G17</f>
+        <v>1093</v>
       </c>
       <c r="AC17">
-        <f>MIN(AB17,AC16)-H17</f>
-        <v>851</v>
+        <f>MAX(AB17,AC16)-H17</f>
+        <v>1081</v>
       </c>
       <c r="AD17">
-        <f>MIN(AC17,AD16)-I17</f>
-        <v>819</v>
+        <f>MAX(AC17,AD16)-I17</f>
+        <v>1053</v>
       </c>
       <c r="AE17">
-        <f>MIN(AD17,AE16)-J17</f>
-        <v>789</v>
+        <f>MAX(AD17,AE16)-J17</f>
+        <v>1024</v>
       </c>
       <c r="AF17">
-        <f>MIN(AE17,AF16)-K17</f>
-        <v>764</v>
+        <f>MAX(AE17,AF16)-K17</f>
+        <v>1001</v>
       </c>
       <c r="AG17">
-        <f>MIN(AF17,AG16)-L17</f>
-        <v>733</v>
+        <f>MAX(AF17,AG16)-L17</f>
+        <v>972</v>
       </c>
       <c r="AH17">
-        <f>MIN(AG17,AH16)-M17</f>
-        <v>708</v>
+        <f>MAX(AG17,AH16)-M17</f>
+        <v>948</v>
       </c>
       <c r="AI17">
-        <f>MIN(AH17,AI16)-N17</f>
-        <v>680</v>
+        <f>MAX(AH17,AI16)-N17</f>
+        <v>1042</v>
       </c>
       <c r="AJ17">
-        <f>MIN(AI17,AJ16)-O17</f>
-        <v>652</v>
+        <f>MAX(AI17,AJ16)-O17</f>
+        <v>1363</v>
       </c>
       <c r="AK17">
-        <f>MIN(AJ17,AK16)-P17</f>
-        <v>625</v>
+        <f>MAX(AJ17,AK16)-P17</f>
+        <v>1348</v>
       </c>
       <c r="AL17">
-        <f>MIN(AK17,AL16)-Q17</f>
-        <v>595</v>
+        <f>MAX(AK17,AL16)-Q17</f>
+        <v>1323</v>
       </c>
       <c r="AM17" s="5">
-        <f>MIN(AL17,AM16)-R17</f>
-        <v>564</v>
+        <f>MAX(AL17,AM16)-R17</f>
+        <v>1294</v>
       </c>
       <c r="AN17" s="14">
         <f t="shared" si="3"/>
-        <v>786</v>
+        <v>624</v>
       </c>
       <c r="AO17" s="5">
-        <f>MIN(AN17,AO16)-T17</f>
-        <v>521</v>
+        <f>MAX(AN17,AO16)-T17</f>
+        <v>784</v>
       </c>
     </row>
     <row r="18" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2992,80 +2992,80 @@
         <v>1033</v>
       </c>
       <c r="W18">
-        <f>MIN(V18,W17)-B18</f>
-        <v>986</v>
+        <f>MAX(V18,W17)-B18</f>
+        <v>1004</v>
       </c>
       <c r="X18">
-        <f>MIN(W18,X17)-C18</f>
-        <v>960</v>
+        <f>MAX(W18,X17)-C18</f>
+        <v>982</v>
       </c>
       <c r="Y18">
-        <f>MIN(X18,Y17)-D18</f>
-        <v>928</v>
+        <f>MAX(X18,Y17)-D18</f>
+        <v>1096</v>
       </c>
       <c r="Z18">
-        <f>MIN(Y18,Z17)-E18</f>
-        <v>902</v>
+        <f>MAX(Y18,Z17)-E18</f>
+        <v>1070</v>
       </c>
       <c r="AA18" s="7">
-        <f>MIN(Z18,AA17)-F18</f>
-        <v>876</v>
+        <f>MAX(Z18,AA17)-F18</f>
+        <v>1044</v>
       </c>
       <c r="AB18" s="7">
-        <f>MIN(AA18,AB17)-G18</f>
-        <v>847</v>
+        <f>MAX(AA18,AB17)-G18</f>
+        <v>1064</v>
       </c>
       <c r="AC18" s="7">
-        <f>MIN(AB18,AC17)-H18</f>
-        <v>819</v>
+        <f>MAX(AB18,AC17)-H18</f>
+        <v>1053</v>
       </c>
       <c r="AD18" s="7">
-        <f>MIN(AC18,AD17)-I18</f>
-        <v>790</v>
+        <f>MAX(AC18,AD17)-I18</f>
+        <v>1024</v>
       </c>
       <c r="AE18" s="7">
-        <f>MIN(AD18,AE17)-J18</f>
-        <v>760</v>
+        <f>MAX(AD18,AE17)-J18</f>
+        <v>995</v>
       </c>
       <c r="AF18">
-        <f>MIN(AE18,AF17)-K18</f>
-        <v>735</v>
+        <f>MAX(AE18,AF17)-K18</f>
+        <v>976</v>
       </c>
       <c r="AG18">
-        <f>MIN(AF18,AG17)-L18</f>
-        <v>706</v>
+        <f>MAX(AF18,AG17)-L18</f>
+        <v>949</v>
       </c>
       <c r="AH18">
-        <f>MIN(AG18,AH17)-M18</f>
-        <v>681</v>
+        <f>MAX(AG18,AH17)-M18</f>
+        <v>924</v>
       </c>
       <c r="AI18">
-        <f>MIN(AH18,AI17)-N18</f>
-        <v>651</v>
+        <f>MAX(AH18,AI17)-N18</f>
+        <v>1013</v>
       </c>
       <c r="AJ18">
-        <f>MIN(AI18,AJ17)-O18</f>
-        <v>624</v>
+        <f>MAX(AI18,AJ17)-O18</f>
+        <v>1336</v>
       </c>
       <c r="AK18">
-        <f>MIN(AJ18,AK17)-P18</f>
-        <v>595</v>
+        <f>MAX(AJ18,AK17)-P18</f>
+        <v>1319</v>
       </c>
       <c r="AL18">
-        <f>MIN(AK18,AL17)-Q18</f>
-        <v>570</v>
+        <f>MAX(AK18,AL17)-Q18</f>
+        <v>1298</v>
       </c>
       <c r="AM18">
-        <f>MIN(AL18,AM17)-R18</f>
-        <v>535</v>
+        <f>MAX(AL18,AM17)-R18</f>
+        <v>1269</v>
       </c>
       <c r="AN18">
-        <f>MIN(AM18,AN17)-S18</f>
-        <v>506</v>
+        <f>MAX(AM18,AN17)-S18</f>
+        <v>1240</v>
       </c>
       <c r="AO18" s="5">
-        <f>MIN(AN18,AO17)-T18</f>
-        <v>478</v>
+        <f>MAX(AN18,AO17)-T18</f>
+        <v>1212</v>
       </c>
     </row>
     <row r="19" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3134,80 +3134,80 @@
         <v>1003</v>
       </c>
       <c r="W19">
-        <f>MIN(V19,W18)-B19</f>
-        <v>956</v>
+        <f>MAX(V19,W18)-B19</f>
+        <v>974</v>
       </c>
       <c r="X19">
-        <f>MIN(W19,X18)-C19</f>
-        <v>928</v>
+        <f>MAX(W19,X18)-C19</f>
+        <v>954</v>
       </c>
       <c r="Y19">
-        <f>MIN(X19,Y18)-D19</f>
-        <v>901</v>
+        <f>MAX(X19,Y18)-D19</f>
+        <v>1069</v>
       </c>
       <c r="Z19">
-        <f>MIN(Y19,Z18)-E19</f>
-        <v>871</v>
+        <f>MAX(Y19,Z18)-E19</f>
+        <v>1040</v>
       </c>
       <c r="AA19" s="12">
         <f t="shared" ref="AA19" si="27">Z19-F19</f>
-        <v>844</v>
+        <v>1013</v>
       </c>
       <c r="AB19" s="12">
         <f t="shared" ref="AB19" si="28">AA19-G19</f>
-        <v>816</v>
+        <v>985</v>
       </c>
       <c r="AC19" s="12">
         <f t="shared" ref="AC19" si="29">AB19-H19</f>
-        <v>790</v>
+        <v>959</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" ref="AD19" si="30">AC19-I19</f>
-        <v>763</v>
+        <v>932</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" ref="AE19" si="31">AD19-J19</f>
-        <v>738</v>
+        <v>907</v>
       </c>
       <c r="AF19">
-        <f>MIN(AE19,AF18)-K19</f>
-        <v>709</v>
+        <f>MAX(AE19,AF18)-K19</f>
+        <v>950</v>
       </c>
       <c r="AG19">
-        <f>MIN(AF19,AG18)-L19</f>
-        <v>681</v>
+        <f>MAX(AF19,AG18)-L19</f>
+        <v>925</v>
       </c>
       <c r="AH19">
-        <f>MIN(AG19,AH18)-M19</f>
-        <v>653</v>
+        <f>MAX(AG19,AH18)-M19</f>
+        <v>897</v>
       </c>
       <c r="AI19">
-        <f>MIN(AH19,AI18)-N19</f>
-        <v>625</v>
+        <f>MAX(AH19,AI18)-N19</f>
+        <v>987</v>
       </c>
       <c r="AJ19">
-        <f>MIN(AI19,AJ18)-O19</f>
-        <v>596</v>
+        <f>MAX(AI19,AJ18)-O19</f>
+        <v>1308</v>
       </c>
       <c r="AK19">
-        <f>MIN(AJ19,AK18)-P19</f>
-        <v>569</v>
+        <f>MAX(AJ19,AK18)-P19</f>
+        <v>1293</v>
       </c>
       <c r="AL19">
-        <f>MIN(AK19,AL18)-Q19</f>
-        <v>542</v>
+        <f>MAX(AK19,AL18)-Q19</f>
+        <v>1271</v>
       </c>
       <c r="AM19" s="11">
-        <f>MIN(AL19,AM18)+R19</f>
-        <v>642</v>
+        <f>MAX(AL19,AM18)+R19</f>
+        <v>1378</v>
       </c>
       <c r="AN19">
-        <f>MIN(AM19,AN18)-S19</f>
-        <v>479</v>
+        <f>MAX(AM19,AN18)-S19</f>
+        <v>1351</v>
       </c>
       <c r="AO19" s="5">
-        <f>MIN(AN19,AO18)-T19</f>
-        <v>453</v>
+        <f>MAX(AN19,AO18)-T19</f>
+        <v>1326</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3276,80 +3276,80 @@
         <v>978</v>
       </c>
       <c r="W20" s="7">
-        <f>MIN(V20,W19)-B20</f>
-        <v>929</v>
+        <f>MAX(V20,W19)-B20</f>
+        <v>951</v>
       </c>
       <c r="X20" s="7">
-        <f>MIN(W20,X19)-C20</f>
+        <f>MAX(W20,X19)-C20</f>
+        <v>924</v>
+      </c>
+      <c r="Y20" s="7">
+        <f>MAX(X20,Y19)-D20</f>
+        <v>1043</v>
+      </c>
+      <c r="Z20" s="7">
+        <f>MAX(Y20,Z19)-E20</f>
+        <v>1014</v>
+      </c>
+      <c r="AA20" s="7">
+        <f>MAX(Z20,AA19)-F20</f>
+        <v>986</v>
+      </c>
+      <c r="AB20" s="7">
+        <f>MAX(AA20,AB19)-G20</f>
+        <v>961</v>
+      </c>
+      <c r="AC20" s="7">
+        <f>MAX(AB20,AC19)-H20</f>
+        <v>932</v>
+      </c>
+      <c r="AD20" s="7">
+        <f>MAX(AC20,AD19)-I20</f>
+        <v>905</v>
+      </c>
+      <c r="AE20" s="7">
+        <f>MAX(AD20,AE19)-J20</f>
+        <v>880</v>
+      </c>
+      <c r="AF20" s="7">
+        <f>MAX(AE20,AF19)-K20</f>
+        <v>923</v>
+      </c>
+      <c r="AG20" s="7">
+        <f>MAX(AF20,AG19)-L20</f>
         <v>898</v>
       </c>
-      <c r="Y20" s="7">
-        <f>MIN(X20,Y19)-D20</f>
-        <v>872</v>
-      </c>
-      <c r="Z20" s="7">
-        <f>MIN(Y20,Z19)-E20</f>
-        <v>842</v>
-      </c>
-      <c r="AA20" s="7">
-        <f>MIN(Z20,AA19)-F20</f>
-        <v>814</v>
-      </c>
-      <c r="AB20" s="7">
-        <f>MIN(AA20,AB19)-G20</f>
-        <v>789</v>
-      </c>
-      <c r="AC20" s="7">
-        <f>MIN(AB20,AC19)-H20</f>
-        <v>760</v>
-      </c>
-      <c r="AD20" s="7">
-        <f>MIN(AC20,AD19)-I20</f>
-        <v>733</v>
-      </c>
-      <c r="AE20" s="7">
-        <f>MIN(AD20,AE19)-J20</f>
-        <v>706</v>
-      </c>
-      <c r="AF20" s="7">
-        <f>MIN(AE20,AF19)-K20</f>
-        <v>679</v>
-      </c>
-      <c r="AG20" s="7">
-        <f>MIN(AF20,AG19)-L20</f>
-        <v>652</v>
-      </c>
       <c r="AH20" s="7">
-        <f>MIN(AG20,AH19)-M20</f>
-        <v>625</v>
+        <f>MAX(AG20,AH19)-M20</f>
+        <v>871</v>
       </c>
       <c r="AI20" s="7">
-        <f>MIN(AH20,AI19)-N20</f>
-        <v>596</v>
+        <f>MAX(AH20,AI19)-N20</f>
+        <v>958</v>
       </c>
       <c r="AJ20" s="7">
-        <f>MIN(AI20,AJ19)-O20</f>
-        <v>571</v>
+        <f>MAX(AI20,AJ19)-O20</f>
+        <v>1283</v>
       </c>
       <c r="AK20" s="7">
-        <f>MIN(AJ20,AK19)-P20</f>
-        <v>544</v>
+        <f>MAX(AJ20,AK19)-P20</f>
+        <v>1268</v>
       </c>
       <c r="AL20" s="7">
-        <f>MIN(AK20,AL19)-Q20</f>
-        <v>512</v>
+        <f>MAX(AK20,AL19)-Q20</f>
+        <v>1241</v>
       </c>
       <c r="AM20" s="7">
-        <f>MIN(AL20,AM19)-R20</f>
-        <v>486</v>
+        <f>MAX(AL20,AM19)-R20</f>
+        <v>1352</v>
       </c>
       <c r="AN20" s="7">
-        <f>MIN(AM20,AN19)-S20</f>
-        <v>450</v>
+        <f>MAX(AM20,AN19)-S20</f>
+        <v>1323</v>
       </c>
       <c r="AO20" s="13">
-        <f>MIN(AN20,AO19)-T20</f>
-        <v>425</v>
+        <f>MAX(AN20,AO19)-T20</f>
+        <v>1301</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.3">
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="AN22" s="15">
-        <v>1406</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.3">
